--- a/exposan/htl/data/landfilling_tipping_fee.xlsx
+++ b/exposan/htl/data/landfilling_tipping_fee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiananfeng/Desktop/PhD_CEE/NSF_PFAS/HTL_landscape/landfilling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB6D9D2-1C01-FF40-BD88-6788EF882C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8B991-6E52-C24A-BC44-A3866DABF916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="3220" windowWidth="28040" windowHeight="18880" activeTab="1" xr2:uid="{D81BD968-AE01-7F42-A600-2874D4AEEB60}"/>
+    <workbookView xWindow="16460" yWindow="3220" windowWidth="28040" windowHeight="18880" xr2:uid="{D81BD968-AE01-7F42-A600-2874D4AEEB60}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
   <si>
     <t>Region/State</t>
   </si>
@@ -268,13 +268,31 @@
   </si>
   <si>
     <t>average_tipping_fee</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <r>
+      <t>$·wet ton</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -314,6 +332,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -688,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9913E2D8-E867-D44D-AC53-4E7FD7B6D1A5}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -733,7 +758,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,6 +770,12 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1538,7 +1569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B98B449-407D-0A4A-ACAE-B672AE9F52C0}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
